--- a/apricot-reports/ApricotReport.xlsx
+++ b/apricot-reports/ApricotReport.xlsx
@@ -6,13 +6,14 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DB Structure" r:id="rId3" sheetId="1"/>
+    <sheet name="Tables List" r:id="rId3" sheetId="1"/>
+    <sheet name="Table Details" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="34">
   <si>
     <t>Parent tables</t>
   </si>
@@ -102,6 +103,18 @@
   </si>
   <si>
     <t>department_column_with_very_long_name_additional_hundred_symbols</t>
+  </si>
+  <si>
+    <t>FK</t>
+  </si>
+  <si>
+    <t>UC</t>
+  </si>
+  <si>
+    <t>UIDX</t>
+  </si>
+  <si>
+    <t>IDX1</t>
   </si>
 </sst>
 </file>
@@ -109,7 +122,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="24">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -130,12 +143,108 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <i val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
     </font>
   </fonts>
   <fills count="4">
@@ -156,7 +265,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -200,14 +309,47 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="double"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="double"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="double"/>
+    </border>
+    <border>
+      <top style="double"/>
+    </border>
+    <border>
+      <top style="double"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="double"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="double"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
@@ -217,8 +359,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
@@ -228,8 +376,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyFill="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
@@ -239,16 +393,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="14.82421875" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink location="'Table Details'!A35" ref="A1"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
@@ -418,295 +603,467 @@
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
     </row>
+    <row r="12">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="F12" s="11"/>
+    </row>
     <row r="13">
-      <c r="A13" s="11" t="s">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13" t="s" s="12">
+        <v>30</v>
+      </c>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14" t="s" s="13">
+        <v>31</v>
+      </c>
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15" t="s" s="14">
+        <v>32</v>
+      </c>
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16" t="s" s="15">
+        <v>14</v>
+      </c>
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17" t="s" s="16">
+        <v>33</v>
+      </c>
+      <c r="F17" s="16"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="12">
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="18">
         <v>7</v>
       </c>
-      <c r="B14" t="n" s="12">
+      <c r="B20" t="n" s="18">
         <v>1.0</v>
       </c>
-      <c r="C14" t="s" s="12">
+      <c r="C20" t="s" s="18">
         <v>8</v>
       </c>
-      <c r="D14" t="s" s="12">
+      <c r="D20" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="E14" t="s" s="12">
+      <c r="E20" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="F14" t="s" s="12">
+      <c r="F20" t="s" s="18">
         <v>11</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="13"/>
-      <c r="B15" t="n" s="13">
-        <v>2.0</v>
-      </c>
-      <c r="C15" t="s" s="13">
-        <v>12</v>
-      </c>
-      <c r="D15" t="s" s="13">
-        <v>13</v>
-      </c>
-      <c r="E15" t="s" s="13">
-        <v>14</v>
-      </c>
-      <c r="F15" s="13"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="14"/>
-      <c r="B16" t="n" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="C16" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="D16" t="s" s="14">
-        <v>16</v>
-      </c>
-      <c r="E16" t="s" s="14">
-        <v>17</v>
-      </c>
-      <c r="F16" s="14"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="15"/>
-      <c r="B17" t="n" s="15">
-        <v>4.0</v>
-      </c>
-      <c r="C17" t="s" s="15">
-        <v>18</v>
-      </c>
-      <c r="D17" t="s" s="15">
-        <v>19</v>
-      </c>
-      <c r="E17" t="s" s="15">
-        <v>20</v>
-      </c>
-      <c r="F17" s="15"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="16"/>
-      <c r="B18" t="n" s="16">
-        <v>5.0</v>
-      </c>
-      <c r="C18" t="s" s="16">
-        <v>21</v>
-      </c>
-      <c r="D18" t="s" s="16">
-        <v>22</v>
-      </c>
-      <c r="E18" t="s" s="16">
-        <v>23</v>
-      </c>
-      <c r="F18" s="16"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="17"/>
-      <c r="B19" t="n" s="17">
-        <v>6.0</v>
-      </c>
-      <c r="C19" t="s" s="17">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s" s="17">
-        <v>25</v>
-      </c>
-      <c r="E19" t="s" s="17">
-        <v>26</v>
-      </c>
-      <c r="F19" s="17"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="18"/>
-      <c r="B20" t="n" s="18">
-        <v>7.0</v>
-      </c>
-      <c r="C20" t="s" s="18">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s" s="18">
-        <v>28</v>
-      </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
     </row>
     <row r="21">
       <c r="A21" s="19"/>
       <c r="B21" t="n" s="19">
+        <v>2.0</v>
+      </c>
+      <c r="C21" t="s" s="19">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s" s="19">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s" s="19">
+        <v>14</v>
+      </c>
+      <c r="F21" s="19"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="20"/>
+      <c r="B22" t="n" s="20">
+        <v>3.0</v>
+      </c>
+      <c r="C22" t="s" s="20">
+        <v>15</v>
+      </c>
+      <c r="D22" t="s" s="20">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s" s="20">
+        <v>17</v>
+      </c>
+      <c r="F22" s="20"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="21"/>
+      <c r="B23" t="n" s="21">
+        <v>4.0</v>
+      </c>
+      <c r="C23" t="s" s="21">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s" s="21">
+        <v>19</v>
+      </c>
+      <c r="E23" t="s" s="21">
+        <v>20</v>
+      </c>
+      <c r="F23" s="21"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="22"/>
+      <c r="B24" t="n" s="22">
+        <v>5.0</v>
+      </c>
+      <c r="C24" t="s" s="22">
+        <v>21</v>
+      </c>
+      <c r="D24" t="s" s="22">
+        <v>22</v>
+      </c>
+      <c r="E24" t="s" s="22">
+        <v>23</v>
+      </c>
+      <c r="F24" s="22"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="23"/>
+      <c r="B25" t="n" s="23">
+        <v>6.0</v>
+      </c>
+      <c r="C25" t="s" s="23">
+        <v>24</v>
+      </c>
+      <c r="D25" t="s" s="23">
+        <v>25</v>
+      </c>
+      <c r="E25" t="s" s="23">
+        <v>26</v>
+      </c>
+      <c r="F25" s="23"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="24"/>
+      <c r="B26" t="n" s="24">
+        <v>7.0</v>
+      </c>
+      <c r="C26" t="s" s="24">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s" s="24">
+        <v>28</v>
+      </c>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="25"/>
+      <c r="B27" t="n" s="25">
         <v>8.0</v>
       </c>
-      <c r="C21" t="s" s="19">
+      <c r="C27" t="s" s="25">
         <v>29</v>
       </c>
-      <c r="D21" t="s" s="19">
+      <c r="D27" t="s" s="25">
         <v>28</v>
       </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="21">
-        <v>7</v>
-      </c>
-      <c r="B24" t="n" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="C24" t="s" s="21">
-        <v>8</v>
-      </c>
-      <c r="D24" t="s" s="21">
-        <v>9</v>
-      </c>
-      <c r="E24" t="s" s="21">
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+    </row>
+    <row r="28">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28" t="s" s="26">
         <v>10</v>
       </c>
-      <c r="F24" t="s" s="21">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="22"/>
-      <c r="B25" t="n" s="22">
-        <v>2.0</v>
-      </c>
-      <c r="C25" t="s" s="22">
-        <v>12</v>
-      </c>
-      <c r="D25" t="s" s="22">
-        <v>13</v>
-      </c>
-      <c r="E25" t="s" s="22">
-        <v>14</v>
-      </c>
-      <c r="F25" s="22"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="23"/>
-      <c r="B26" t="n" s="23">
-        <v>3.0</v>
-      </c>
-      <c r="C26" t="s" s="23">
-        <v>15</v>
-      </c>
-      <c r="D26" t="s" s="23">
-        <v>16</v>
-      </c>
-      <c r="E26" t="s" s="23">
-        <v>17</v>
-      </c>
-      <c r="F26" s="23"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="24"/>
-      <c r="B27" t="n" s="24">
-        <v>4.0</v>
-      </c>
-      <c r="C27" t="s" s="24">
-        <v>18</v>
-      </c>
-      <c r="D27" t="s" s="24">
-        <v>19</v>
-      </c>
-      <c r="E27" t="s" s="24">
-        <v>20</v>
-      </c>
-      <c r="F27" s="24"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="25"/>
-      <c r="B28" t="n" s="25">
-        <v>5.0</v>
-      </c>
-      <c r="C28" t="s" s="25">
-        <v>21</v>
-      </c>
-      <c r="D28" t="s" s="25">
-        <v>22</v>
-      </c>
-      <c r="E28" t="s" s="25">
-        <v>23</v>
-      </c>
-      <c r="F28" s="25"/>
+      <c r="F28" s="26"/>
     </row>
     <row r="29">
-      <c r="A29" s="26"/>
-      <c r="B29" t="n" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="C29" t="s" s="26">
-        <v>24</v>
-      </c>
-      <c r="D29" t="s" s="26">
-        <v>25</v>
-      </c>
-      <c r="E29" t="s" s="26">
-        <v>26</v>
-      </c>
-      <c r="F29" s="26"/>
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29" t="s" s="27">
+        <v>30</v>
+      </c>
+      <c r="F29" s="27"/>
     </row>
     <row r="30">
-      <c r="A30" s="27"/>
-      <c r="B30" t="n" s="27">
-        <v>7.0</v>
-      </c>
-      <c r="C30" t="s" s="27">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s" s="27">
-        <v>28</v>
-      </c>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30" t="s" s="28">
+        <v>31</v>
+      </c>
+      <c r="F30" s="28"/>
     </row>
     <row r="31">
-      <c r="A31" s="28"/>
-      <c r="B31" t="n" s="28">
-        <v>8.0</v>
-      </c>
-      <c r="C31" t="s" s="28">
-        <v>29</v>
-      </c>
-      <c r="D31" t="s" s="28">
-        <v>28</v>
-      </c>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31" t="s" s="29">
+        <v>32</v>
+      </c>
+      <c r="F31" s="29"/>
     </row>
     <row r="32">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
+      <c r="E32" t="s" s="30">
+        <v>14</v>
+      </c>
+      <c r="F32" s="30"/>
+    </row>
+    <row r="33">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33" t="s" s="31">
+        <v>33</v>
+      </c>
+      <c r="F33" s="31"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="33">
+        <v>7</v>
+      </c>
+      <c r="B36" t="n" s="33">
+        <v>1.0</v>
+      </c>
+      <c r="C36" t="s" s="33">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s" s="33">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s" s="33">
+        <v>10</v>
+      </c>
+      <c r="F36" t="s" s="33">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="34"/>
+      <c r="B37" t="n" s="34">
+        <v>2.0</v>
+      </c>
+      <c r="C37" t="s" s="34">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s" s="34">
+        <v>13</v>
+      </c>
+      <c r="E37" t="s" s="34">
+        <v>14</v>
+      </c>
+      <c r="F37" s="34"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="35"/>
+      <c r="B38" t="n" s="35">
+        <v>3.0</v>
+      </c>
+      <c r="C38" t="s" s="35">
+        <v>15</v>
+      </c>
+      <c r="D38" t="s" s="35">
+        <v>16</v>
+      </c>
+      <c r="E38" t="s" s="35">
+        <v>17</v>
+      </c>
+      <c r="F38" s="35"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="36"/>
+      <c r="B39" t="n" s="36">
+        <v>4.0</v>
+      </c>
+      <c r="C39" t="s" s="36">
+        <v>18</v>
+      </c>
+      <c r="D39" t="s" s="36">
+        <v>19</v>
+      </c>
+      <c r="E39" t="s" s="36">
+        <v>20</v>
+      </c>
+      <c r="F39" s="36"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="37"/>
+      <c r="B40" t="n" s="37">
+        <v>5.0</v>
+      </c>
+      <c r="C40" t="s" s="37">
+        <v>21</v>
+      </c>
+      <c r="D40" t="s" s="37">
+        <v>22</v>
+      </c>
+      <c r="E40" t="s" s="37">
+        <v>23</v>
+      </c>
+      <c r="F40" s="37"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="38"/>
+      <c r="B41" t="n" s="38">
+        <v>6.0</v>
+      </c>
+      <c r="C41" t="s" s="38">
+        <v>24</v>
+      </c>
+      <c r="D41" t="s" s="38">
+        <v>25</v>
+      </c>
+      <c r="E41" t="s" s="38">
+        <v>26</v>
+      </c>
+      <c r="F41" s="38"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="39"/>
+      <c r="B42" t="n" s="39">
+        <v>7.0</v>
+      </c>
+      <c r="C42" t="s" s="39">
+        <v>27</v>
+      </c>
+      <c r="D42" t="s" s="39">
+        <v>28</v>
+      </c>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="40"/>
+      <c r="B43" t="n" s="40">
+        <v>8.0</v>
+      </c>
+      <c r="C43" t="s" s="40">
+        <v>29</v>
+      </c>
+      <c r="D43" t="s" s="40">
+        <v>28</v>
+      </c>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44" t="s" s="41">
+        <v>10</v>
+      </c>
+      <c r="F44" s="41"/>
+    </row>
+    <row r="45">
+      <c r="A45"/>
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45" t="s" s="42">
+        <v>30</v>
+      </c>
+      <c r="F45" s="42"/>
+    </row>
+    <row r="46">
+      <c r="A46"/>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46" t="s" s="43">
+        <v>31</v>
+      </c>
+      <c r="F46" s="43"/>
+    </row>
+    <row r="47">
+      <c r="A47"/>
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47" t="s" s="44">
+        <v>32</v>
+      </c>
+      <c r="F47" s="44"/>
+    </row>
+    <row r="48">
+      <c r="A48"/>
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48" t="s" s="45">
+        <v>14</v>
+      </c>
+      <c r="F48" s="45"/>
+    </row>
+    <row r="49">
+      <c r="A49"/>
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49" t="s" s="46">
+        <v>33</v>
+      </c>
+      <c r="F49" s="46"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A35:F35"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
